--- a/ClueLayout.xlsx
+++ b/ClueLayout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="41">
   <si>
     <t>x</t>
   </si>
@@ -127,6 +127,21 @@
   </si>
   <si>
     <t>White:  doors and their direction test</t>
+  </si>
+  <si>
+    <t>Purple:  Door way adjacency( a.k.a) exit</t>
+  </si>
+  <si>
+    <t>orange: test the player does not move around in a room</t>
+  </si>
+  <si>
+    <t>black:Adjacency list beside room entrance</t>
+  </si>
+  <si>
+    <t>PINK: walkways scenarios</t>
+  </si>
+  <si>
+    <t>light blue: test targets</t>
   </si>
 </sst>
 </file>
@@ -206,17 +221,18 @@
     </font>
     <font>
       <sz val="28"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +260,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF93B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +350,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -307,17 +359,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -663,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -676,7 +735,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -709,10 +768,10 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="12" t="s">
         <v>31</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -750,7 +809,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -836,7 +895,7 @@
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -848,7 +907,7 @@
       <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -957,7 +1016,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="36" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1037,7 +1096,7 @@
       <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1079,7 +1138,7 @@
       <c r="Q6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="11" t="s">
         <v>31</v>
       </c>
       <c r="S6" s="5" t="s">
@@ -1099,7 +1158,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="36" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1156,7 +1215,7 @@
       <c r="S7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="11" t="s">
         <v>31</v>
       </c>
       <c r="U7" s="5" t="s">
@@ -1185,7 +1244,7 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -1221,7 +1280,7 @@
       <c r="Q8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S8" s="4" t="s">
@@ -1386,7 +1445,7 @@
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1469,7 +1528,7 @@
       <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -1499,7 +1558,7 @@
       <c r="O12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="Q12" s="2" t="s">
@@ -1635,7 +1694,7 @@
       <c r="M14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="11" t="s">
         <v>31</v>
       </c>
       <c r="O14" s="5" t="s">
@@ -1664,7 +1723,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="36" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1673,7 +1732,7 @@
       <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1777,7 +1836,7 @@
       <c r="O16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="17" t="s">
         <v>31</v>
       </c>
       <c r="Q16" s="5" t="s">
@@ -1936,7 +1995,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="36" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1972,7 +2031,7 @@
       <c r="L19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="N19" s="5" t="s">
@@ -2019,7 +2078,7 @@
       <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -2099,7 +2158,7 @@
       <c r="I21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="11" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="4" t="s">
@@ -2114,7 +2173,7 @@
       <c r="N21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="11" t="s">
         <v>31</v>
       </c>
       <c r="P21" s="5" t="s">
@@ -2123,7 +2182,7 @@
       <c r="Q21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="R21" s="8" t="s">
         <v>29</v>
       </c>
       <c r="S21" s="2" t="s">
@@ -2161,7 +2220,7 @@
       <c r="G22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="17" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="5" t="s">
@@ -2182,7 +2241,7 @@
       <c r="N22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="12" t="s">
         <v>31</v>
       </c>
       <c r="P22" s="5" t="s">
@@ -2191,7 +2250,7 @@
       <c r="Q22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R22" s="4" t="s">
+      <c r="R22" s="9" t="s">
         <v>29</v>
       </c>
       <c r="S22" s="2" t="s">
@@ -2274,35 +2333,195 @@
       <c r="V23" s="7"/>
     </row>
     <row r="24" spans="1:22" ht="36">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
       <c r="V24" s="7"/>
     </row>
-    <row r="25" spans="1:22" ht="64" customHeight="1">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:22" ht="36" customHeight="1">
+      <c r="A25" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+    </row>
+    <row r="26" spans="1:22" ht="36" customHeight="1">
+      <c r="A26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+    </row>
+    <row r="27" spans="1:22" ht="36" customHeight="1">
+      <c r="A27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+    </row>
+    <row r="28" spans="1:22" ht="36" customHeight="1">
+      <c r="A28" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+    </row>
+    <row r="29" spans="1:22" ht="36" customHeight="1">
+      <c r="A29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30" spans="1:22" ht="36" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+    </row>
+    <row r="31" spans="1:22" ht="36" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
+    <mergeCell ref="A31:T31"/>
     <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A26:T26"/>
+    <mergeCell ref="A25:T25"/>
+    <mergeCell ref="A27:T27"/>
+    <mergeCell ref="A28:T28"/>
+    <mergeCell ref="A29:T29"/>
+    <mergeCell ref="A30:T30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
